--- a/IMM_q_calculation_yields_DMFA_S.xlsx
+++ b/IMM_q_calculation_yields_DMFA_S.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7992" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19164" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="149">
   <si>
     <t>Time (h)</t>
   </si>
@@ -278,181 +278,10 @@
     <t>Viability (%)</t>
   </si>
   <si>
-    <t>Glucose (mM)</t>
-  </si>
-  <si>
-    <t>Lactate (mM)</t>
-  </si>
-  <si>
-    <t>Glutamine Bio (mM)</t>
-  </si>
-  <si>
-    <t>Glutamate Bio (mM)</t>
-  </si>
-  <si>
-    <r>
-      <t>NH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (mM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Na</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (mM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (mM)</t>
-    </r>
-  </si>
-  <si>
     <t>Osmolality  (Osm/kg)</t>
   </si>
   <si>
     <t>OUR (mmols/L·h)</t>
-  </si>
-  <si>
-    <t>Aspartic acid (mM)</t>
-  </si>
-  <si>
-    <t>Glutamic acid (mM)</t>
-  </si>
-  <si>
-    <t>Cysteine (mM)</t>
-  </si>
-  <si>
-    <t>Asparagine (mM)</t>
-  </si>
-  <si>
-    <t>Serine (mM)</t>
-  </si>
-  <si>
-    <t>Glutamine (mM)</t>
-  </si>
-  <si>
-    <t>Histidine (mM)</t>
-  </si>
-  <si>
-    <t>Glycine (mM)</t>
-  </si>
-  <si>
-    <t>Threonine (mM)</t>
-  </si>
-  <si>
-    <t>Arginine (mM)</t>
-  </si>
-  <si>
-    <t>Alanine (mM)</t>
-  </si>
-  <si>
-    <t>Tyrosine (mM)</t>
-  </si>
-  <si>
-    <t>Valine (mM)</t>
-  </si>
-  <si>
-    <t>Methionine (mM)</t>
-  </si>
-  <si>
-    <t>Tryptophan (mM)</t>
-  </si>
-  <si>
-    <t>Phenylalanine (mM)</t>
-  </si>
-  <si>
-    <t>Isoleucine (mM)</t>
-  </si>
-  <si>
-    <t>Leucine (mM)</t>
-  </si>
-  <si>
-    <t>Lysine (mM)</t>
-  </si>
-  <si>
-    <t>Proline (mM)</t>
-  </si>
-  <si>
-    <t>Succinate (mM)</t>
   </si>
   <si>
     <t>Citric acid (mM)</t>
@@ -592,6 +421,84 @@
   <si>
     <t>Lactate Bio</t>
   </si>
+  <si>
+    <t>succ</t>
+  </si>
+  <si>
+    <t>na1[e]</t>
+  </si>
+  <si>
+    <t>k[e]</t>
+  </si>
+  <si>
+    <t>alpha-D-Glucose[e]</t>
+  </si>
+  <si>
+    <t>S-Lactate[e]</t>
+  </si>
+  <si>
+    <t>L-Glutamine[e]</t>
+  </si>
+  <si>
+    <t>L-Glutamate[e]</t>
+  </si>
+  <si>
+    <t>NH3[e]</t>
+  </si>
+  <si>
+    <t>L-Aspartate[e]</t>
+  </si>
+  <si>
+    <t>L-Cysteine[e]</t>
+  </si>
+  <si>
+    <t>L-Asparagine[e]</t>
+  </si>
+  <si>
+    <t>L-Serine[e]</t>
+  </si>
+  <si>
+    <t>L-Histidine[e]</t>
+  </si>
+  <si>
+    <t>Glycine[e]</t>
+  </si>
+  <si>
+    <t>L-Threonine[e]</t>
+  </si>
+  <si>
+    <t>L-Arginine[e]</t>
+  </si>
+  <si>
+    <t>L-Alanine[e]</t>
+  </si>
+  <si>
+    <t>L-Tyrosine[e]</t>
+  </si>
+  <si>
+    <t>L-Valine[e]</t>
+  </si>
+  <si>
+    <t>L-Methionine[e]</t>
+  </si>
+  <si>
+    <t>L-Tryptophan[e]</t>
+  </si>
+  <si>
+    <t>L-Phenylalanine[e]</t>
+  </si>
+  <si>
+    <t>L-Isoleucine[e]</t>
+  </si>
+  <si>
+    <t>L-Leucine[e]</t>
+  </si>
+  <si>
+    <t>L-Lysine[e]</t>
+  </si>
+  <si>
+    <t>L-Proline[e]</t>
+  </si>
 </sst>
 </file>
 
@@ -635,22 +542,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,8 +592,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -792,11 +708,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,10 +832,19 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,6 +857,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +884,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1240,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="DH1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,457 +1216,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" x14ac:dyDescent="0.3">
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="38" t="s">
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="39"/>
-      <c r="BX1" s="39"/>
-      <c r="BY1" s="39"/>
-      <c r="BZ1" s="39"/>
-      <c r="CA1" s="39"/>
-      <c r="CB1" s="39"/>
-      <c r="CC1" s="39"/>
-      <c r="CD1" s="39"/>
-      <c r="CE1" s="39"/>
-      <c r="CF1" s="39"/>
-      <c r="CG1" s="39"/>
-      <c r="CH1" s="39"/>
-      <c r="CI1" s="39"/>
-      <c r="CJ1" s="39"/>
-      <c r="CK1" s="39"/>
-      <c r="CL1" s="39"/>
-      <c r="CM1" s="39"/>
-      <c r="CN1" s="39"/>
-      <c r="CO1" s="39"/>
-      <c r="CP1" s="39"/>
-      <c r="CQ1" s="39"/>
-      <c r="CR1" s="39"/>
-      <c r="CS1" s="39"/>
-      <c r="CT1" s="39"/>
-      <c r="CU1" s="39"/>
-      <c r="CV1" s="39"/>
-      <c r="CW1" s="39"/>
-      <c r="CX1" s="39"/>
-      <c r="CY1" s="39"/>
-      <c r="CZ1" s="39"/>
-      <c r="DA1" s="39"/>
-      <c r="DB1" s="39"/>
-      <c r="DC1" s="39"/>
-      <c r="DD1" s="39"/>
-      <c r="DE1" s="39"/>
-      <c r="DF1" s="39"/>
-      <c r="DG1" s="39"/>
-      <c r="DH1" s="39"/>
-      <c r="DI1" s="39"/>
-      <c r="DJ1" s="39"/>
-      <c r="DK1" s="39"/>
-      <c r="DL1" s="39"/>
-      <c r="DM1" s="39"/>
-      <c r="DN1" s="39"/>
-      <c r="DO1" s="39"/>
-      <c r="DP1" s="39"/>
-      <c r="DQ1" s="39"/>
-      <c r="DR1" s="39"/>
-      <c r="DS1" s="39"/>
-      <c r="DT1" s="39"/>
-      <c r="DU1" s="39"/>
-      <c r="DV1" s="39"/>
-      <c r="DW1" s="39"/>
-      <c r="DX1" s="39"/>
-      <c r="DY1" s="39"/>
-      <c r="DZ1" s="39"/>
-      <c r="EA1" s="39"/>
-      <c r="EB1" s="39"/>
-      <c r="EC1" s="39"/>
-      <c r="ED1" s="39"/>
-      <c r="EE1" s="39"/>
-      <c r="EF1" s="39"/>
-      <c r="EG1" s="39"/>
-      <c r="EH1" s="39"/>
-      <c r="EI1" s="39"/>
-      <c r="EJ1" s="39"/>
-      <c r="EK1" s="39" t="s">
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BW1" s="42"/>
+      <c r="BX1" s="42"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="42"/>
+      <c r="CC1" s="42"/>
+      <c r="CD1" s="42"/>
+      <c r="CE1" s="42"/>
+      <c r="CF1" s="42"/>
+      <c r="CG1" s="42"/>
+      <c r="CH1" s="42"/>
+      <c r="CI1" s="42"/>
+      <c r="CJ1" s="42"/>
+      <c r="CK1" s="42"/>
+      <c r="CL1" s="42"/>
+      <c r="CM1" s="42"/>
+      <c r="CN1" s="42"/>
+      <c r="CO1" s="42"/>
+      <c r="CP1" s="42"/>
+      <c r="CQ1" s="42"/>
+      <c r="CR1" s="42"/>
+      <c r="CS1" s="42"/>
+      <c r="CT1" s="42"/>
+      <c r="CU1" s="42"/>
+      <c r="CV1" s="42"/>
+      <c r="CW1" s="42"/>
+      <c r="CX1" s="42"/>
+      <c r="CY1" s="42"/>
+      <c r="CZ1" s="42"/>
+      <c r="DA1" s="42"/>
+      <c r="DB1" s="42"/>
+      <c r="DC1" s="42"/>
+      <c r="DD1" s="42"/>
+      <c r="DE1" s="42"/>
+      <c r="DF1" s="42"/>
+      <c r="DG1" s="42"/>
+      <c r="DH1" s="42"/>
+      <c r="DI1" s="42"/>
+      <c r="DJ1" s="42"/>
+      <c r="DK1" s="42"/>
+      <c r="DL1" s="42"/>
+      <c r="DM1" s="42"/>
+      <c r="DN1" s="42"/>
+      <c r="DO1" s="42"/>
+      <c r="DP1" s="42"/>
+      <c r="DQ1" s="42"/>
+      <c r="DR1" s="42"/>
+      <c r="DS1" s="42"/>
+      <c r="DT1" s="42"/>
+      <c r="DU1" s="42"/>
+      <c r="DV1" s="42"/>
+      <c r="DW1" s="42"/>
+      <c r="DX1" s="42"/>
+      <c r="DY1" s="42"/>
+      <c r="DZ1" s="42"/>
+      <c r="EA1" s="42"/>
+      <c r="EB1" s="42"/>
+      <c r="EC1" s="42"/>
+      <c r="ED1" s="42"/>
+      <c r="EE1" s="42"/>
+      <c r="EF1" s="42"/>
+      <c r="EG1" s="42"/>
+      <c r="EH1" s="42"/>
+      <c r="EI1" s="42"/>
+      <c r="EJ1" s="42"/>
+      <c r="EK1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="EL1" s="39"/>
-      <c r="EM1" s="39"/>
-      <c r="EN1" s="39"/>
-      <c r="EO1" s="39"/>
-      <c r="EP1" s="39"/>
-      <c r="EQ1" s="39"/>
-      <c r="ER1" s="39"/>
-      <c r="ES1" s="39"/>
-      <c r="ET1" s="39"/>
-      <c r="EU1" s="39"/>
-      <c r="EV1" s="39"/>
-      <c r="EW1" s="39"/>
-      <c r="EX1" s="39"/>
-      <c r="EY1" s="39"/>
-      <c r="EZ1" s="39"/>
-      <c r="FA1" s="39"/>
-      <c r="FB1" s="39"/>
-      <c r="FC1" s="39"/>
-      <c r="FD1" s="39"/>
-      <c r="FE1" s="39"/>
-      <c r="FF1" s="39"/>
-      <c r="FG1" s="39"/>
-      <c r="FH1" s="39"/>
-      <c r="FI1" s="39"/>
-      <c r="FJ1" s="39"/>
-      <c r="FK1" s="39"/>
-      <c r="FL1" s="39"/>
-      <c r="FM1" s="39"/>
-      <c r="FN1" s="39"/>
-      <c r="FO1" s="39"/>
-      <c r="FP1" s="39"/>
-      <c r="FQ1" s="39"/>
-      <c r="FR1" s="39"/>
-      <c r="FS1" s="39"/>
-      <c r="FT1" s="39"/>
+      <c r="EL1" s="42"/>
+      <c r="EM1" s="42"/>
+      <c r="EN1" s="42"/>
+      <c r="EO1" s="42"/>
+      <c r="EP1" s="42"/>
+      <c r="EQ1" s="42"/>
+      <c r="ER1" s="42"/>
+      <c r="ES1" s="42"/>
+      <c r="ET1" s="42"/>
+      <c r="EU1" s="42"/>
+      <c r="EV1" s="42"/>
+      <c r="EW1" s="42"/>
+      <c r="EX1" s="42"/>
+      <c r="EY1" s="42"/>
+      <c r="EZ1" s="42"/>
+      <c r="FA1" s="42"/>
+      <c r="FB1" s="42"/>
+      <c r="FC1" s="42"/>
+      <c r="FD1" s="42"/>
+      <c r="FE1" s="42"/>
+      <c r="FF1" s="42"/>
+      <c r="FG1" s="42"/>
+      <c r="FH1" s="42"/>
+      <c r="FI1" s="42"/>
+      <c r="FJ1" s="42"/>
+      <c r="FK1" s="42"/>
+      <c r="FL1" s="42"/>
+      <c r="FM1" s="42"/>
+      <c r="FN1" s="42"/>
+      <c r="FO1" s="42"/>
+      <c r="FP1" s="42"/>
+      <c r="FQ1" s="42"/>
+      <c r="FR1" s="42"/>
+      <c r="FS1" s="42"/>
+      <c r="FT1" s="42"/>
     </row>
-    <row r="2" spans="1:176" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:176" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36" t="s">
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36" t="s">
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV2" s="39"/>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="39"/>
+      <c r="BY2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ2" s="39"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="39"/>
+      <c r="CC2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD2" s="39"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="39"/>
+      <c r="CG2" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="45"/>
+      <c r="CW2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="45"/>
+      <c r="DA2" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
+      <c r="DD2" s="45"/>
+      <c r="DE2" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="45"/>
+      <c r="DI2" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="45"/>
+      <c r="DM2" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="45"/>
+      <c r="DQ2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="45"/>
+      <c r="DU2" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="45"/>
+      <c r="DY2" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="45"/>
+      <c r="EC2" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="ED2" s="44"/>
+      <c r="EE2" s="44"/>
+      <c r="EF2" s="45"/>
+      <c r="EG2" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="EH2" s="44"/>
+      <c r="EI2" s="44"/>
+      <c r="EJ2" s="45"/>
+      <c r="EK2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="EL2" s="39"/>
+      <c r="EM2" s="39"/>
+      <c r="EN2" s="39"/>
+      <c r="EO2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="EP2" s="39"/>
+      <c r="EQ2" s="39"/>
+      <c r="ER2" s="39"/>
+      <c r="ES2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="ET2" s="39"/>
+      <c r="EU2" s="39"/>
+      <c r="EV2" s="39"/>
+      <c r="EW2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36" t="s">
+      <c r="EX2" s="39"/>
+      <c r="EY2" s="39"/>
+      <c r="EZ2" s="39"/>
+      <c r="FA2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36" t="s">
+      <c r="FB2" s="39"/>
+      <c r="FC2" s="39"/>
+      <c r="FD2" s="39"/>
+      <c r="FE2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="36"/>
-      <c r="CS2" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="CT2" s="36"/>
-      <c r="CU2" s="36"/>
-      <c r="CV2" s="36"/>
-      <c r="CW2" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="CX2" s="36"/>
-      <c r="CY2" s="36"/>
-      <c r="CZ2" s="36"/>
-      <c r="DA2" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="DB2" s="36"/>
-      <c r="DC2" s="36"/>
-      <c r="DD2" s="36"/>
-      <c r="DE2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="DF2" s="36"/>
-      <c r="DG2" s="36"/>
-      <c r="DH2" s="36"/>
-      <c r="DI2" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="DJ2" s="36"/>
-      <c r="DK2" s="36"/>
-      <c r="DL2" s="36"/>
-      <c r="DM2" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="DN2" s="36"/>
-      <c r="DO2" s="36"/>
-      <c r="DP2" s="36"/>
-      <c r="DQ2" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="DR2" s="36"/>
-      <c r="DS2" s="36"/>
-      <c r="DT2" s="36"/>
-      <c r="DU2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="DV2" s="36"/>
-      <c r="DW2" s="36"/>
-      <c r="DX2" s="36"/>
-      <c r="DY2" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="DZ2" s="36"/>
-      <c r="EA2" s="36"/>
-      <c r="EB2" s="36"/>
-      <c r="EC2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="ED2" s="36"/>
-      <c r="EE2" s="36"/>
-      <c r="EF2" s="36"/>
-      <c r="EG2" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="EH2" s="36"/>
-      <c r="EI2" s="36"/>
-      <c r="EJ2" s="36"/>
-      <c r="EK2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="EL2" s="36"/>
-      <c r="EM2" s="36"/>
-      <c r="EN2" s="36"/>
-      <c r="EO2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="EP2" s="36"/>
-      <c r="EQ2" s="36"/>
-      <c r="ER2" s="36"/>
-      <c r="ES2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="ET2" s="36"/>
-      <c r="EU2" s="36"/>
-      <c r="EV2" s="36"/>
-      <c r="EW2" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="EX2" s="36"/>
-      <c r="EY2" s="36"/>
-      <c r="EZ2" s="36"/>
-      <c r="FA2" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="FB2" s="36"/>
-      <c r="FC2" s="36"/>
-      <c r="FD2" s="36"/>
-      <c r="FE2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="FF2" s="36"/>
-      <c r="FG2" s="36"/>
-      <c r="FH2" s="36"/>
-      <c r="FI2" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="FJ2" s="36"/>
-      <c r="FK2" s="36"/>
-      <c r="FL2" s="36"/>
-      <c r="FM2" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="FN2" s="36"/>
-      <c r="FO2" s="36"/>
-      <c r="FP2" s="36"/>
-      <c r="FQ2" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="FR2" s="36"/>
-      <c r="FS2" s="36"/>
-      <c r="FT2" s="36"/>
+      <c r="FF2" s="39"/>
+      <c r="FG2" s="39"/>
+      <c r="FH2" s="39"/>
+      <c r="FI2" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="FJ2" s="39"/>
+      <c r="FK2" s="39"/>
+      <c r="FL2" s="39"/>
+      <c r="FM2" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="FN2" s="39"/>
+      <c r="FO2" s="39"/>
+      <c r="FP2" s="39"/>
+      <c r="FQ2" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="FR2" s="39"/>
+      <c r="FS2" s="39"/>
+      <c r="FT2" s="39"/>
     </row>
     <row r="3" spans="1:176" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -1715,489 +1675,489 @@
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AF3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AG3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AH3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AI3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AK3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AL3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AM3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AN3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AO3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AP3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AQ3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AR3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AS3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AT3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AU3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AV3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AW3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AX3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="AY3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AZ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BA3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BB3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BD3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BE3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BF3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BG3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BH3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BI3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BJ3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BK3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BL3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BM3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BN3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BO3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BP3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BQ3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BR3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BS3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BT3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BU3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BV3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="BW3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BX3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BY3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="BZ3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CA3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CB3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CC3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CD3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CE3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CF3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CG3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CH3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CI3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CJ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CK3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CL3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CM3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CN3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CO3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CP3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CQ3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CR3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CS3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CT3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CU3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CV3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="CW3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CX3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="CY3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="CZ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DA3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DB3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DC3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DD3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DE3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DF3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DG3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DH3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DI3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DJ3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DK3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DL3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DM3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DN3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DO3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DQ3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DR3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DT3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DU3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DV3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="DW3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="DX3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="DY3" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="DZ3" s="11" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EA3" s="11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EB3" s="11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="EC3" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="ED3" s="11" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EE3" s="11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EF3" s="11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="EG3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="EH3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EI3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EJ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="EK3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="EL3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EM3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EN3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="EO3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="EP3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EQ3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="ER3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="ES3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="ET3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EU3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EV3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="EW3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="EX3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="EY3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="EZ3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="FA3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="FB3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="FC3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="FD3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="FE3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="FF3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="FG3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="FH3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="FI3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="FJ3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="FK3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="FL3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="FM3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="FN3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="FO3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="FP3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="FQ3" s="27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="FR3" s="27" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="FS3" s="27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="FT3" s="27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:176" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2221,7 +2181,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M4" s="15">
         <v>1</v>
@@ -2744,7 +2704,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M5" s="15">
         <v>1</v>
@@ -3255,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D6" s="19">
         <v>258</v>
@@ -3268,7 +3228,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="14" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="M6" s="15">
         <v>2</v>
@@ -3781,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D7" s="19">
         <v>254</v>
@@ -3794,7 +3754,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="21" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="M7" s="22">
         <v>2</v>
@@ -4356,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D8" s="19">
         <v>250</v>
@@ -4369,7 +4329,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="21" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="M8" s="22">
         <v>2</v>
@@ -4951,7 +4911,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D9" s="19">
         <v>246</v>
@@ -4964,7 +4924,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="21" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="M9" s="22">
         <v>3</v>
@@ -5541,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D10" s="19">
         <v>242</v>
@@ -5554,7 +5514,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="21" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="M10" s="22">
         <v>3</v>
@@ -6135,7 +6095,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D11" s="19">
         <v>239.8</v>
@@ -6150,7 +6110,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="21" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="M11" s="22">
         <v>3</v>
@@ -6731,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D12" s="19">
         <v>234</v>
@@ -6744,7 +6704,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="21" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="M12" s="22">
         <v>3</v>
@@ -7324,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D13" s="19">
         <v>230</v>
@@ -7337,7 +7297,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="21" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M13" s="22">
         <v>4</v>
@@ -7919,7 +7879,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D14" s="19">
         <v>226</v>
@@ -7932,7 +7892,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="21" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M14" s="22">
         <v>4</v>
@@ -8512,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D15" s="19">
         <v>225</v>
@@ -8527,7 +8487,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="21" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M15" s="22">
         <v>4</v>
@@ -9109,7 +9069,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D16" s="19">
         <v>218</v>
@@ -9122,7 +9082,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M16" s="22">
         <v>4</v>
@@ -9703,7 +9663,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D17" s="19">
         <v>217</v>
@@ -9718,7 +9678,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M17" s="22">
         <v>5</v>
@@ -10299,7 +10259,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D18" s="19">
         <v>210</v>
@@ -10312,7 +10272,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M18" s="22">
         <v>5</v>
@@ -10894,7 +10854,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D19" s="19">
         <v>211</v>
@@ -10909,7 +10869,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M19" s="22">
         <v>5</v>
@@ -11491,7 +11451,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D20" s="19">
         <v>202</v>
@@ -11504,7 +11464,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M20" s="22">
         <v>5</v>
@@ -11609,9 +11569,7 @@
       <c r="AP20" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AQ20" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="AQ20" s="37"/>
       <c r="AR20" s="24" t="s">
         <v>1</v>
       </c>
@@ -11813,9 +11771,7 @@
       <c r="CX20" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="CY20" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="CY20" s="38"/>
       <c r="CZ20" s="24" t="s">
         <v>1</v>
       </c>
@@ -12078,7 +12034,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D21" s="19">
         <v>201</v>
@@ -12093,7 +12049,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="21" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="M21" s="22">
         <v>6</v>
@@ -12408,9 +12364,7 @@
       <c r="CX21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="CY21" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="CY21" s="38"/>
       <c r="CZ21" s="24" t="s">
         <v>1</v>
       </c>
@@ -12670,7 +12624,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D22" s="19">
         <v>194</v>
@@ -12683,7 +12637,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="21" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="M22" s="22">
         <v>6</v>
@@ -12997,9 +12951,7 @@
       <c r="CX22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="CY22" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="CY22" s="38"/>
       <c r="CZ22" s="24" t="s">
         <v>1</v>
       </c>
@@ -13262,7 +13214,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D23" s="19">
         <v>190.8</v>
@@ -13277,7 +13229,7 @@
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="21" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="M23" s="22">
         <v>6</v>
@@ -13591,9 +13543,7 @@
       <c r="CX23" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="CY23" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="CY23" s="38"/>
       <c r="CZ23" s="24" t="s">
         <v>1</v>
       </c>
@@ -13855,7 +13805,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D24" s="25">
         <v>186</v>
@@ -13868,7 +13818,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
       <c r="L24" s="14" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M24" s="15">
         <v>7</v>
@@ -14392,7 +14342,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>1</v>
@@ -14405,7 +14355,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M25" s="15">
         <v>7</v>
@@ -14928,7 +14878,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>1</v>
@@ -14941,7 +14891,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M26" s="15">
         <v>8</v>
@@ -15536,8 +15486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15635,16 +15585,16 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -20384,7 +20334,7 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20482,16 +20432,16 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
